--- a/data/output/graficos_keijzer-7_default.xlsx
+++ b/data/output/graficos_keijzer-7_default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Gen</t>
   </si>
@@ -61,10 +61,10 @@
     <t xml:space="preserve"> H_std_dev</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1018692776421978800000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,0000</t>
+    <t xml:space="preserve"> Infinity</t>
   </si>
   <si>
-    <t xml:space="preserve"> Infinity</t>
+    <t xml:space="preserve"> 179769313486231560000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,0000</t>
   </si>
 </sst>
 </file>
@@ -150,36 +150,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -210,20 +180,331 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="98"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>36</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>38</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>42</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>47</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>48</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>49</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>54</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>55</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>56</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>57</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>58</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>59</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>61</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>63</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>65</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>66</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>69</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>71</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>72</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>73</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>74</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>76</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>77</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>78</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>79</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>82</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>83</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>84</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>85</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>87</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>88</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>91</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>92</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>93</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>94</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>96</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>97</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dados!$B$2:$B$101</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dados!$B$2:$B$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dados!$B$4:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.52E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -508,12 +789,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -523,6 +798,1312 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E69-42EF-B5AB-48DD05B488B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dados!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="98"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>36</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>38</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>42</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>47</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>48</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>49</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>54</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>55</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>56</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>57</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>58</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>59</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>61</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>63</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>65</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>66</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>69</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>71</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>72</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>73</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>74</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>76</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>77</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>78</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>79</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>82</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>83</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>84</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>85</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>87</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>88</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>91</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>92</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>93</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>94</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>96</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>97</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dados!$D$2:$D$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dados!$D$4:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>1.7208000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FEC-4AA3-B66F-83EE8402E67D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dados!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="98"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>36</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>38</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>42</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>47</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>48</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>49</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>54</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>55</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>56</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>57</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>58</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>59</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>61</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>63</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>65</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>66</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>69</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>71</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>72</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>73</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>74</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>76</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>77</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>78</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>79</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>82</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>83</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>84</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>85</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>87</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>88</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>91</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>92</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>93</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>94</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>96</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>97</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dados!$F$2:$F$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dados!$F$4:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>7.1361999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6787999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2979000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FEC-4AA3-B66F-83EE8402E67D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -821,311 +2402,622 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="99"/>
+              <c:pt idx="0">
+                <c:v>200,00%</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>300,00%</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>400,00%</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>500,00%</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>600,00%</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>700,00%</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>800,00%</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>900,00%</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>1000,00%</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>1100,00%</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>1200,00%</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>1300,00%</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>1400,00%</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>1500,00%</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>1600,00%</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>1700,00%</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>1800,00%</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1900,00%</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2000,00%</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2100,00%</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2200,00%</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2300,00%</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2400,00%</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2500,00%</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2600,00%</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2700,00%</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2800,00%</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2900,00%</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>3000,00%</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>3100,00%</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>3200,00%</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>3300,00%</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>3400,00%</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>3500,00%</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>3600,00%</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>3700,00%</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>3800,00%</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>3900,00%</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>4000,00%</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>4100,00%</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>4200,00%</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>4300,00%</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>4400,00%</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>4500,00%</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>4600,00%</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>4700,00%</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>4800,00%</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>4900,00%</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>5000,00%</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>5100,00%</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>5200,00%</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>5300,00%</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>5400,00%</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>5500,00%</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>5600,00%</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>5700,00%</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>5800,00%</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>5900,00%</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>6000,00%</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>6100,00%</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>6200,00%</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>6300,00%</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>6400,00%</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>6500,00%</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>6600,00%</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>6700,00%</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>6800,00%</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>6900,00%</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>7000,00%</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>7100,00%</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>7200,00%</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>7300,00%</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>7400,00%</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>7500,00%</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>7600,00%</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>7700,00%</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>7800,00%</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>7900,00%</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>8000,00%</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>8100,00%</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>8200,00%</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>8300,00%</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>8400,00%</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>8500,00%</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>8600,00%</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>8700,00%</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>8800,00%</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>8900,00%</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>9000,00%</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>9100,00%</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>9200,00%</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>9300,00%</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>9400,00%</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>9500,00%</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>9600,00%</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>9700,00%</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>9800,00%</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>9900,00%</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>10000,00%</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dados!$H$2:$H$101</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dados!$H$2:$H$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dados!$H$3:$H$101</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0.64600000000000002</c:v>
+                  <c:v>0.746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66800000000000004</c:v>
+                  <c:v>0.60166699999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74033300000000002</c:v>
+                  <c:v>0.43766699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86266699999999996</c:v>
+                  <c:v>0.281333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94099999999999995</c:v>
+                  <c:v>0.16333300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98399999999999999</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.996</c:v>
+                  <c:v>4.0667000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.5666999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2.0333E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.1666999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>1.9667E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.0667000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2.0667000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99866699999999997</c:v>
+                  <c:v>2.2332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2.2667E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2.2332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.2332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.4333E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.5666999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99866699999999997</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.999</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.4667000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.999</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.7333E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>3.0332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.6667E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.6332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.2667E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>2.3667000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>2.5333000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.5333000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>2.4667000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>3.1667000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.2333000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99866699999999997</c:v>
+                  <c:v>2.7333E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.999</c:v>
+                  <c:v>2.1666999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.999</c:v>
+                  <c:v>1.9332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>2.8333000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>2.8667000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.2667000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99833300000000003</c:v>
+                  <c:v>3.0332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.999</c:v>
+                  <c:v>3.1333E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>3.0332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99866699999999997</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.8333000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.0332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>2.9666999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.3333000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>3.3667000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>3.2667000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.5666999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99866699999999997</c:v>
+                  <c:v>3.8332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99833300000000003</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.999</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.999</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>3.9667000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>4.1333000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>4.2333000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1</c:v>
+                  <c:v>4.4332999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1</c:v>
+                  <c:v>4.0667000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1</c:v>
+                  <c:v>4.0667000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>4.0667000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1</c:v>
+                  <c:v>4.1333000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1</c:v>
+                  <c:v>3.7666999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1</c:v>
+                  <c:v>4.6332999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>4.1667000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>4.2666999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>4.1667000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1</c:v>
+                  <c:v>3.9333E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1</c:v>
+                  <c:v>3.5666999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>3.7666999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>3.4333000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1</c:v>
+                  <c:v>3.7332999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1</c:v>
+                  <c:v>3.7332999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1</c:v>
+                  <c:v>3.6332999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
+                  <c:v>3.4333000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,311 +3055,622 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="99"/>
+              <c:pt idx="0">
+                <c:v>200,00%</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>300,00%</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>400,00%</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>500,00%</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>600,00%</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>700,00%</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>800,00%</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>900,00%</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>1000,00%</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>1100,00%</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>1200,00%</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>1300,00%</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>1400,00%</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>1500,00%</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>1600,00%</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>1700,00%</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>1800,00%</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1900,00%</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2000,00%</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2100,00%</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2200,00%</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2300,00%</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2400,00%</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2500,00%</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2600,00%</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2700,00%</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2800,00%</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2900,00%</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>3000,00%</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>3100,00%</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>3200,00%</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>3300,00%</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>3400,00%</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>3500,00%</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>3600,00%</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>3700,00%</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>3800,00%</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>3900,00%</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>4000,00%</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>4100,00%</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>4200,00%</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>4300,00%</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>4400,00%</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>4500,00%</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>4600,00%</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>4700,00%</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>4800,00%</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>4900,00%</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>5000,00%</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>5100,00%</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>5200,00%</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>5300,00%</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>5400,00%</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>5500,00%</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>5600,00%</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>5700,00%</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>5800,00%</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>5900,00%</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>6000,00%</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>6100,00%</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>6200,00%</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>6300,00%</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>6400,00%</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>6500,00%</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>6600,00%</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>6700,00%</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>6800,00%</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>6900,00%</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>7000,00%</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>7100,00%</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>7200,00%</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>7300,00%</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>7400,00%</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>7500,00%</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>7600,00%</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>7700,00%</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>7800,00%</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>7900,00%</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>8000,00%</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>8100,00%</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>8200,00%</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>8300,00%</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>8400,00%</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>8500,00%</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>8600,00%</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>8700,00%</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>8800,00%</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>8900,00%</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>9000,00%</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>9100,00%</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>9200,00%</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>9300,00%</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>9400,00%</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>9500,00%</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>9600,00%</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>9700,00%</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>9800,00%</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>9900,00%</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>10000,00%</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dados!$J$2:$J$101</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dados!$J$2:$J$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dados!$J$3:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97366699999999995</c:v>
+                  <c:v>0.89700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98799999999999999</c:v>
+                  <c:v>0.80166700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84899999999999998</c:v>
+                  <c:v>0.89233300000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93766700000000003</c:v>
+                  <c:v>0.91633299999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97966699999999995</c:v>
+                  <c:v>0.82166700000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99199999999999999</c:v>
+                  <c:v>0.52100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99933300000000003</c:v>
+                  <c:v>0.29166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>9.8333000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3.2333000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>3.3333000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99966699999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,41 +3708,355 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="99"/>
+              <c:pt idx="0">
+                <c:v>200,00%</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>300,00%</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>400,00%</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>500,00%</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>600,00%</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>700,00%</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>800,00%</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>900,00%</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>1000,00%</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>1100,00%</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>1200,00%</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>1300,00%</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>1400,00%</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>1500,00%</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>1600,00%</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>1700,00%</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>1800,00%</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1900,00%</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2000,00%</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2100,00%</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2200,00%</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2300,00%</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2400,00%</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2500,00%</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2600,00%</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2700,00%</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2800,00%</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2900,00%</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>3000,00%</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>3100,00%</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>3200,00%</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>3300,00%</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>3400,00%</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>3500,00%</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>3600,00%</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>3700,00%</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>3800,00%</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>3900,00%</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>4000,00%</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>4100,00%</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>4200,00%</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>4300,00%</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>4400,00%</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>4500,00%</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>4600,00%</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>4700,00%</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>4800,00%</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>4900,00%</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>5000,00%</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>5100,00%</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>5200,00%</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>5300,00%</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>5400,00%</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>5500,00%</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>5600,00%</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>5700,00%</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>5800,00%</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>5900,00%</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>6000,00%</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>6100,00%</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>6200,00%</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>6300,00%</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>6400,00%</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>6500,00%</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>6600,00%</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>6700,00%</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>6800,00%</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>6900,00%</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>7000,00%</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>7100,00%</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>7200,00%</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>7300,00%</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>7400,00%</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>7500,00%</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>7600,00%</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>7700,00%</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>7800,00%</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>7900,00%</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>8000,00%</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>8100,00%</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>8200,00%</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>8300,00%</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>8400,00%</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>8500,00%</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>8600,00%</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>8700,00%</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>8800,00%</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>8900,00%</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>9000,00%</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>9100,00%</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>9200,00%</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>9300,00%</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>9400,00%</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>9500,00%</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>9600,00%</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>9700,00%</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>9800,00%</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>9900,00%</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>10000,00%</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dados!$L$2:$L$101</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Dados!$L$2:$L$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Dados!$L$3:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6332999999999999E-2</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.19833300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.151</c:v>
+                  <c:v>0.107667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2333E-2</c:v>
+                  <c:v>8.3667000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0333E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>1.2333E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6699999999999995E-4</c:v>
+                  <c:v>8.3330000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.6670000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1698,10 +4215,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.3300000000000002E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.3300000000000002E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -1719,7 +4236,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.3300000000000002E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0</c:v>
@@ -1806,9 +4323,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3112,8 +5626,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3142,14 +5656,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3443,7 +5957,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,8 +5974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60EEE7D-07DC-4AA2-BB6C-B4B94D413903}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="M99" sqref="A1:M101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,28 +6039,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>0.30719999999999997</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>0.64600000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="I2" s="2">
-        <v>6.2840999999999994E-2</v>
+        <v>4.1936000000000001E-2</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -3566,40 +6080,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7.3677000000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.1244000000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>56.885899999999999</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5.4194000000000004</v>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="2">
-        <v>0.66800000000000004</v>
+        <v>0.746</v>
       </c>
       <c r="I3" s="2">
-        <v>7.5448000000000001E-2</v>
+        <v>6.9758000000000001E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>0.97366699999999995</v>
+        <v>0.999</v>
       </c>
       <c r="K3" s="2">
-        <v>4.2139999999999997E-2</v>
+        <v>4.0260000000000001E-3</v>
       </c>
       <c r="L3" s="2">
-        <v>2.6332999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="M3" s="2">
-        <v>4.2139999999999997E-2</v>
+        <v>4.0260000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3607,40 +6121,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>2.52E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>1.7712000000000001</v>
+        <v>1.7208000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.57210000000000005</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="F4" s="1">
-        <v>26.168299999999999</v>
+        <v>7.1361999999999997</v>
       </c>
       <c r="G4" s="1">
-        <v>22.069099999999999</v>
+        <v>10.4711</v>
       </c>
       <c r="H4" s="2">
-        <v>0.74033300000000002</v>
+        <v>0.60166699999999995</v>
       </c>
       <c r="I4" s="2">
-        <v>9.5066999999999999E-2</v>
+        <v>0.12660199999999999</v>
       </c>
       <c r="J4" s="2">
-        <v>0.98799999999999999</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="K4" s="2">
-        <v>1.4716E-2</v>
+        <v>0.13380800000000001</v>
       </c>
       <c r="L4" s="2">
-        <v>1.2E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="M4" s="2">
-        <v>1.4716E-2</v>
+        <v>0.13380800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3648,40 +6162,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.6462</v>
+        <v>0.88070000000000004</v>
       </c>
       <c r="E5" s="1">
-        <v>0.42449999999999999</v>
+        <v>0.4728</v>
       </c>
       <c r="F5" s="1">
-        <v>4.5644</v>
+        <v>4.1660000000000004</v>
       </c>
       <c r="G5" s="1">
-        <v>2.4434999999999998</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="H5" s="2">
-        <v>0.86266699999999996</v>
+        <v>0.43766699999999997</v>
       </c>
       <c r="I5" s="2">
-        <v>9.1687000000000005E-2</v>
+        <v>0.16023000000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>0.84899999999999998</v>
+        <v>0.80166700000000002</v>
       </c>
       <c r="K5" s="2">
-        <v>9.0795000000000001E-2</v>
+        <v>9.6991999999999995E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>0.151</v>
+        <v>0.19833300000000001</v>
       </c>
       <c r="M5" s="2">
-        <v>9.0795000000000001E-2</v>
+        <v>9.6991999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3689,40 +6203,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1777</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.22</v>
+        <v>0.3201</v>
       </c>
       <c r="F6" s="1">
-        <v>2.5163000000000002</v>
+        <v>2.6787999999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>1.4169</v>
+        <v>1.2766</v>
       </c>
       <c r="H6" s="2">
-        <v>0.94099999999999995</v>
+        <v>0.281333</v>
       </c>
       <c r="I6" s="2">
-        <v>6.5880999999999995E-2</v>
+        <v>0.17383599999999999</v>
       </c>
       <c r="J6" s="2">
-        <v>0.93766700000000003</v>
+        <v>0.89233300000000004</v>
       </c>
       <c r="K6" s="2">
-        <v>5.7155999999999998E-2</v>
+        <v>7.1277999999999994E-2</v>
       </c>
       <c r="L6" s="2">
-        <v>6.2333E-2</v>
+        <v>0.107667</v>
       </c>
       <c r="M6" s="2">
-        <v>5.7155999999999998E-2</v>
+        <v>7.1277999999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3736,34 +6250,34 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>3.0499999999999999E-2</v>
+        <v>0.1118</v>
       </c>
       <c r="E7" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1618</v>
       </c>
       <c r="F7" s="1">
-        <v>0.70220000000000005</v>
+        <v>1.2979000000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>1.1934</v>
+        <v>1.1969000000000001</v>
       </c>
       <c r="H7" s="2">
-        <v>0.98399999999999999</v>
+        <v>0.16333300000000001</v>
       </c>
       <c r="I7" s="2">
-        <v>3.3279999999999997E-2</v>
+        <v>0.13494100000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>0.97966699999999995</v>
+        <v>0.91633299999999995</v>
       </c>
       <c r="K7" s="2">
-        <v>5.0684E-2</v>
+        <v>0.104995</v>
       </c>
       <c r="L7" s="2">
-        <v>2.0333E-2</v>
+        <v>8.3667000000000005E-2</v>
       </c>
       <c r="M7" s="2">
-        <v>5.0684E-2</v>
+        <v>0.104995</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3777,34 +6291,34 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>2.7799999999999998E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>0.14680000000000001</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>0.47649999999999998</v>
+        <v>0.5988</v>
       </c>
       <c r="H8" s="2">
-        <v>0.996</v>
+        <v>0.09</v>
       </c>
       <c r="I8" s="2">
-        <v>1.3797E-2</v>
+        <v>9.7979999999999998E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>0.99199999999999999</v>
+        <v>0.82166700000000004</v>
       </c>
       <c r="K8" s="2">
-        <v>2.605E-2</v>
+        <v>0.33745599999999998</v>
       </c>
       <c r="L8" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M8" s="2">
-        <v>2.605E-2</v>
+        <v>8.2157999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3818,34 +6332,34 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>1.5E-3</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>8.0999999999999996E-3</v>
+        <v>0.42270000000000002</v>
       </c>
       <c r="H9" s="2">
-        <v>0.99933300000000003</v>
+        <v>4.0667000000000002E-2</v>
       </c>
       <c r="I9" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>6.4001000000000002E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>0.99933300000000003</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="K9" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>0.496369</v>
       </c>
       <c r="L9" s="2">
-        <v>6.6699999999999995E-4</v>
+        <v>1.2333E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>2.861E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3859,34 +6373,34 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>2.5666999999999999E-2</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>3.8567999999999998E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>0.29166700000000001</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>0.45473799999999998</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>8.3330000000000001E-3</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>4.0178999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3903,31 +6417,31 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2.8E-3</v>
       </c>
       <c r="H11" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.0333E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>2.2967000000000001E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>9.8333000000000004E-2</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>0.30013899999999999</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1.6670000000000001E-3</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>9.129E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3950,25 +6464,25 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H12" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.1666999999999999E-2</v>
       </c>
       <c r="I12" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>3.7790999999999998E-2</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>3.2333000000000001E-2</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>0.177097</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>5.4770000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3994,16 +6508,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0.99933300000000003</v>
+        <v>1.9667E-2</v>
       </c>
       <c r="I13" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>2.9064E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>3.3333000000000002E-2</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>0.18257399999999999</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -4035,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>2.0667000000000001E-2</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>2.9586999999999999E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -4076,13 +6590,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0.99866699999999997</v>
+        <v>2.0667000000000001E-2</v>
       </c>
       <c r="I15" s="2">
-        <v>4.3420000000000004E-3</v>
+        <v>3.0842999999999999E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4117,13 +6631,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.2332999999999999E-2</v>
       </c>
       <c r="I16" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>3.7845999999999998E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4158,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>3.6427000000000001E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4199,13 +6713,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.2667E-2</v>
       </c>
       <c r="I18" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>3.8501000000000001E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4240,13 +6754,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>3.7545000000000002E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4281,13 +6795,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.2332999999999999E-2</v>
       </c>
       <c r="I20" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>4.0656999999999999E-2</v>
       </c>
       <c r="J20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4322,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.2332999999999999E-2</v>
       </c>
       <c r="I21" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>4.0571999999999997E-2</v>
       </c>
       <c r="J21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -4363,13 +6877,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>2.4333E-2</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>4.7828000000000002E-2</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -4404,13 +6918,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I23" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>4.4081000000000002E-2</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -4445,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.5666999999999999E-2</v>
       </c>
       <c r="I24" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>5.1035999999999998E-2</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -4486,13 +7000,13 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I25" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>5.4275999999999998E-2</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -4527,13 +7041,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0.99866699999999997</v>
+        <v>0.03</v>
       </c>
       <c r="I26" s="2">
-        <v>5.7130000000000002E-3</v>
+        <v>7.1823999999999999E-2</v>
       </c>
       <c r="J26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -4568,13 +7082,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0.999</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I27" s="2">
-        <v>4.0260000000000001E-3</v>
+        <v>6.9498000000000004E-2</v>
       </c>
       <c r="J27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4609,13 +7123,13 @@
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I28" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>5.9547000000000003E-2</v>
       </c>
       <c r="J28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
@@ -4650,13 +7164,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>0.999</v>
+        <v>2.4667000000000001E-2</v>
       </c>
       <c r="I29" s="2">
-        <v>5.4770000000000001E-3</v>
+        <v>4.6810999999999998E-2</v>
       </c>
       <c r="J29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -4691,13 +7205,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I30" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>4.5995000000000001E-2</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -4732,13 +7246,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I31" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>5.0223999999999998E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -4773,13 +7287,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>2.7333E-2</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>5.9938999999999999E-2</v>
       </c>
       <c r="J32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -4814,13 +7328,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>7.6428999999999997E-2</v>
       </c>
       <c r="J33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4855,13 +7369,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.0332999999999999E-2</v>
       </c>
       <c r="I34" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>7.8453999999999996E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -4896,13 +7410,13 @@
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.6667E-2</v>
       </c>
       <c r="I35" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>5.9208999999999998E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
@@ -4937,13 +7451,13 @@
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.6332999999999999E-2</v>
       </c>
       <c r="I36" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>5.6536999999999997E-2</v>
       </c>
       <c r="J36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
@@ -4978,13 +7492,13 @@
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>2.2667E-2</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>4.0763000000000001E-2</v>
       </c>
       <c r="J37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -5019,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>2.3667000000000001E-2</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>4.5447000000000001E-2</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
@@ -5060,13 +7574,13 @@
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.5333000000000001E-2</v>
       </c>
       <c r="I39" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>5.1910999999999999E-2</v>
       </c>
       <c r="J39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -5101,13 +7615,13 @@
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>2.5333000000000001E-2</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>5.1576999999999998E-2</v>
       </c>
       <c r="J40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
@@ -5142,13 +7656,13 @@
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>2.4667000000000001E-2</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>4.7323999999999998E-2</v>
       </c>
       <c r="J41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -5183,13 +7697,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>5.6455999999999999E-2</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -5224,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.1667000000000001E-2</v>
       </c>
       <c r="I43" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>6.9880999999999999E-2</v>
       </c>
       <c r="J43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -5265,13 +7779,13 @@
         <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="I44" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>8.0179E-2</v>
       </c>
       <c r="J44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -5306,13 +7820,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I45" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>7.3782E-2</v>
       </c>
       <c r="J45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
@@ -5347,13 +7861,13 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>0.99866699999999997</v>
+        <v>3.2333000000000001E-2</v>
       </c>
       <c r="I46" s="2">
-        <v>5.0740000000000004E-3</v>
+        <v>7.8726000000000004E-2</v>
       </c>
       <c r="J46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -5388,13 +7902,13 @@
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>0.999</v>
+        <v>2.7333E-2</v>
       </c>
       <c r="I47" s="2">
-        <v>3.0509999999999999E-3</v>
+        <v>5.4389E-2</v>
       </c>
       <c r="J47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -5429,13 +7943,13 @@
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>0.999</v>
+        <v>2.1666999999999999E-2</v>
       </c>
       <c r="I48" s="2">
-        <v>3.0509999999999999E-3</v>
+        <v>3.5339000000000002E-2</v>
       </c>
       <c r="J48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
@@ -5470,13 +7984,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>0.99966699999999997</v>
+        <v>1.9332999999999999E-2</v>
       </c>
       <c r="I49" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>2.8760000000000001E-2</v>
       </c>
       <c r="J49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -5511,13 +8025,13 @@
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I50" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>3.4775E-2</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
@@ -5552,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I51" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>5.0145000000000002E-2</v>
       </c>
       <c r="J51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
@@ -5593,13 +8107,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>5.6410000000000002E-2</v>
       </c>
       <c r="J52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -5634,13 +8148,13 @@
         <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>2.8333000000000001E-2</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>5.6328999999999997E-2</v>
       </c>
       <c r="J53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
@@ -5675,13 +8189,13 @@
         <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>0.99966699999999997</v>
+        <v>2.8667000000000002E-2</v>
       </c>
       <c r="I54" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>5.9523E-2</v>
       </c>
       <c r="J54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -5716,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I55" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>6.0534999999999999E-2</v>
       </c>
       <c r="J55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
@@ -5757,13 +8271,13 @@
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>0.99833300000000003</v>
+        <v>3.2667000000000002E-2</v>
       </c>
       <c r="I56" s="2">
-        <v>5.921E-3</v>
+        <v>7.0021E-2</v>
       </c>
       <c r="J56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
@@ -5798,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="H57" s="2">
-        <v>0.99966699999999997</v>
+        <v>3.0332999999999999E-2</v>
       </c>
       <c r="I57" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>6.0713000000000003E-2</v>
       </c>
       <c r="J57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
@@ -5839,13 +8353,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>0.999</v>
+        <v>0.03</v>
       </c>
       <c r="I58" s="2">
-        <v>4.0260000000000001E-3</v>
+        <v>6.0514999999999999E-2</v>
       </c>
       <c r="J58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
@@ -5880,13 +8394,13 @@
         <v>0</v>
       </c>
       <c r="H59" s="2">
-        <v>0.99966699999999997</v>
+        <v>3.1333E-2</v>
       </c>
       <c r="I59" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>6.4420000000000005E-2</v>
       </c>
       <c r="J59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
@@ -5921,13 +8435,13 @@
         <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.0332999999999999E-2</v>
       </c>
       <c r="I60" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>6.3325999999999993E-2</v>
       </c>
       <c r="J60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
@@ -5962,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>0.99866699999999997</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I61" s="2">
-        <v>5.0740000000000004E-3</v>
+        <v>6.4772999999999997E-2</v>
       </c>
       <c r="J61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
@@ -6003,13 +8517,13 @@
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I62" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>6.3647999999999996E-2</v>
       </c>
       <c r="J62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2">
         <v>0</v>
@@ -6044,13 +8558,13 @@
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.8333000000000001E-2</v>
       </c>
       <c r="I63" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>5.6390000000000003E-2</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2">
         <v>0</v>
@@ -6085,22 +8599,22 @@
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.0332999999999999E-2</v>
       </c>
       <c r="I64" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>6.5310000000000007E-2</v>
       </c>
       <c r="J64" s="2">
-        <v>0.99966699999999997</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="L64" s="2">
-        <v>3.3300000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="M64" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6126,22 +8640,22 @@
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>0.99933300000000003</v>
+        <v>2.9666999999999999E-2</v>
       </c>
       <c r="I65" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>6.2725000000000003E-2</v>
       </c>
       <c r="J65" s="2">
-        <v>0.99966699999999997</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="L65" s="2">
-        <v>3.3300000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="M65" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -6167,13 +8681,13 @@
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>0.99966699999999997</v>
+        <v>3.3333000000000002E-2</v>
       </c>
       <c r="I66" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>7.3968000000000006E-2</v>
       </c>
       <c r="J66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2">
         <v>0</v>
@@ -6208,13 +8722,13 @@
         <v>0</v>
       </c>
       <c r="H67" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.3667000000000002E-2</v>
       </c>
       <c r="I67" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>7.7968999999999997E-2</v>
       </c>
       <c r="J67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2">
         <v>0</v>
@@ -6249,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <v>0.99966699999999997</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I68" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>6.4985000000000001E-2</v>
       </c>
       <c r="J68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2">
         <v>0</v>
@@ -6290,13 +8804,13 @@
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.2667000000000002E-2</v>
       </c>
       <c r="I69" s="2">
-        <v>3.6510000000000002E-3</v>
+        <v>7.0266999999999996E-2</v>
       </c>
       <c r="J69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2">
         <v>0</v>
@@ -6331,13 +8845,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <v>0.99866699999999997</v>
+        <v>3.5666999999999997E-2</v>
       </c>
       <c r="I70" s="2">
-        <v>5.7130000000000002E-3</v>
+        <v>8.2948999999999995E-2</v>
       </c>
       <c r="J70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2">
         <v>0</v>
@@ -6372,22 +8886,22 @@
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <v>0.99833300000000003</v>
+        <v>3.8332999999999999E-2</v>
       </c>
       <c r="I71" s="2">
-        <v>7.4660000000000004E-3</v>
+        <v>9.2664999999999997E-2</v>
       </c>
       <c r="J71" s="2">
-        <v>0.99966699999999997</v>
+        <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="L71" s="2">
-        <v>3.3300000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6413,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="H72" s="2">
-        <v>0.999</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I72" s="2">
-        <v>4.0260000000000001E-3</v>
+        <v>8.0005999999999994E-2</v>
       </c>
       <c r="J72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2">
         <v>0</v>
@@ -6454,13 +8968,13 @@
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I73" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>8.8643E-2</v>
       </c>
       <c r="J73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2">
         <v>0</v>
@@ -6495,13 +9009,13 @@
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <v>0.999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I74" s="2">
-        <v>4.0260000000000001E-3</v>
+        <v>9.1776999999999997E-2</v>
       </c>
       <c r="J74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2">
         <v>0</v>
@@ -6536,13 +9050,13 @@
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>0.99933300000000003</v>
+        <v>0.04</v>
       </c>
       <c r="I75" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>8.9712E-2</v>
       </c>
       <c r="J75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="2">
         <v>0</v>
@@ -6577,13 +9091,13 @@
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <v>0.99933300000000003</v>
+        <v>3.9667000000000001E-2</v>
       </c>
       <c r="I76" s="2">
-        <v>2.5370000000000002E-3</v>
+        <v>9.5825999999999995E-2</v>
       </c>
       <c r="J76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="2">
         <v>0</v>
@@ -6618,13 +9132,13 @@
         <v>0</v>
       </c>
       <c r="H77" s="2">
-        <v>0.99966699999999997</v>
+        <v>4.1333000000000002E-2</v>
       </c>
       <c r="I77" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>9.6587999999999993E-2</v>
       </c>
       <c r="J77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="2">
         <v>0</v>
@@ -6659,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="H78" s="2">
-        <v>1</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I78" s="2">
-        <v>0</v>
+        <v>0.10222199999999999</v>
       </c>
       <c r="J78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="2">
         <v>0</v>
@@ -6700,13 +9214,13 @@
         <v>0</v>
       </c>
       <c r="H79" s="2">
-        <v>1</v>
+        <v>4.2333000000000003E-2</v>
       </c>
       <c r="I79" s="2">
-        <v>0</v>
+        <v>0.106145</v>
       </c>
       <c r="J79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="2">
         <v>0</v>
@@ -6741,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <v>1</v>
+        <v>4.4332999999999997E-2</v>
       </c>
       <c r="I80" s="2">
-        <v>0</v>
+        <v>0.107437</v>
       </c>
       <c r="J80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="2">
         <v>0</v>
@@ -6782,13 +9296,13 @@
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <v>1</v>
+        <v>4.0667000000000002E-2</v>
       </c>
       <c r="I81" s="2">
-        <v>0</v>
+        <v>9.5481999999999997E-2</v>
       </c>
       <c r="J81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="2">
         <v>0</v>
@@ -6823,13 +9337,13 @@
         <v>0</v>
       </c>
       <c r="H82" s="2">
-        <v>0.99966699999999997</v>
+        <v>4.0667000000000002E-2</v>
       </c>
       <c r="I82" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>9.3659000000000006E-2</v>
       </c>
       <c r="J82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="2">
         <v>0</v>
@@ -6864,13 +9378,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="2">
-        <v>0.99966699999999997</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I83" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>0.10609499999999999</v>
       </c>
       <c r="J83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
@@ -6905,13 +9419,13 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <v>0.99966699999999997</v>
+        <v>4.0667000000000002E-2</v>
       </c>
       <c r="I84" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>9.3696000000000002E-2</v>
       </c>
       <c r="J84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
@@ -6946,13 +9460,13 @@
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <v>1</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I85" s="2">
-        <v>0</v>
+        <v>0.102633</v>
       </c>
       <c r="J85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
@@ -6987,13 +9501,13 @@
         <v>0</v>
       </c>
       <c r="H86" s="2">
-        <v>1</v>
+        <v>4.1333000000000002E-2</v>
       </c>
       <c r="I86" s="2">
-        <v>0</v>
+        <v>0.101531</v>
       </c>
       <c r="J86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="2">
         <v>0</v>
@@ -7028,13 +9542,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="2">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="I87" s="2">
-        <v>0</v>
+        <v>0.101506</v>
       </c>
       <c r="J87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
@@ -7069,13 +9583,13 @@
         <v>0</v>
       </c>
       <c r="H88" s="2">
-        <v>0.99966699999999997</v>
+        <v>3.7666999999999999E-2</v>
       </c>
       <c r="I88" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>9.1939999999999994E-2</v>
       </c>
       <c r="J88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
@@ -7110,13 +9624,13 @@
         <v>0</v>
       </c>
       <c r="H89" s="2">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="I89" s="2">
-        <v>0</v>
+        <v>9.9273E-2</v>
       </c>
       <c r="J89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
@@ -7151,13 +9665,13 @@
         <v>0</v>
       </c>
       <c r="H90" s="2">
-        <v>0.99966699999999997</v>
+        <v>4.6332999999999999E-2</v>
       </c>
       <c r="I90" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>0.119322</v>
       </c>
       <c r="J90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
@@ -7192,13 +9706,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="2">
-        <v>0.99966699999999997</v>
+        <v>4.1667000000000003E-2</v>
       </c>
       <c r="I91" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>0.11076800000000001</v>
       </c>
       <c r="J91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="2">
         <v>0</v>
@@ -7233,13 +9747,13 @@
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <v>1</v>
+        <v>4.2666999999999997E-2</v>
       </c>
       <c r="I92" s="2">
-        <v>0</v>
+        <v>0.107861</v>
       </c>
       <c r="J92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="2">
         <v>0</v>
@@ -7274,13 +9788,13 @@
         <v>0</v>
       </c>
       <c r="H93" s="2">
-        <v>1</v>
+        <v>4.1667000000000003E-2</v>
       </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>0.101373</v>
       </c>
       <c r="J93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="2">
         <v>0</v>
@@ -7315,13 +9829,13 @@
         <v>0</v>
       </c>
       <c r="H94" s="2">
-        <v>1</v>
+        <v>3.9333E-2</v>
       </c>
       <c r="I94" s="2">
-        <v>0</v>
+        <v>9.6379999999999993E-2</v>
       </c>
       <c r="J94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="2">
         <v>0</v>
@@ -7356,13 +9870,13 @@
         <v>0</v>
       </c>
       <c r="H95" s="2">
-        <v>0.99966699999999997</v>
+        <v>3.5666999999999997E-2</v>
       </c>
       <c r="I95" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>8.4555000000000005E-2</v>
       </c>
       <c r="J95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="2">
         <v>0</v>
@@ -7397,13 +9911,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="2">
-        <v>0.99966699999999997</v>
+        <v>3.7666999999999999E-2</v>
       </c>
       <c r="I96" s="2">
-        <v>1.8259999999999999E-3</v>
+        <v>9.6622E-2</v>
       </c>
       <c r="J96" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="2">
         <v>0</v>
@@ -7438,13 +9952,13 @@
         <v>0</v>
       </c>
       <c r="H97" s="2">
-        <v>1</v>
+        <v>3.4333000000000002E-2</v>
       </c>
       <c r="I97" s="2">
-        <v>0</v>
+        <v>8.4514000000000006E-2</v>
       </c>
       <c r="J97" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="2">
         <v>0</v>
@@ -7479,13 +9993,13 @@
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <v>1</v>
+        <v>3.7332999999999998E-2</v>
       </c>
       <c r="I98" s="2">
-        <v>0</v>
+        <v>9.1497999999999996E-2</v>
       </c>
       <c r="J98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="2">
         <v>0</v>
@@ -7520,13 +10034,13 @@
         <v>0</v>
       </c>
       <c r="H99" s="2">
-        <v>1</v>
+        <v>3.7332999999999998E-2</v>
       </c>
       <c r="I99" s="2">
-        <v>0</v>
+        <v>9.8117999999999997E-2</v>
       </c>
       <c r="J99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="2">
         <v>0</v>
@@ -7561,13 +10075,13 @@
         <v>0</v>
       </c>
       <c r="H100" s="2">
-        <v>1</v>
+        <v>3.6332999999999997E-2</v>
       </c>
       <c r="I100" s="2">
-        <v>0</v>
+        <v>9.2902999999999999E-2</v>
       </c>
       <c r="J100" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="2">
         <v>0</v>
@@ -7602,13 +10116,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="2">
-        <v>1</v>
+        <v>3.4333000000000002E-2</v>
       </c>
       <c r="I101" s="2">
-        <v>0</v>
+        <v>9.3759999999999996E-2</v>
       </c>
       <c r="J101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" s="2">
         <v>0</v>
